--- a/biology/Zoologie/Caïque_à_tête_noire/Caïque_à_tête_noire.xlsx
+++ b/biology/Zoologie/Caïque_à_tête_noire/Caïque_à_tête_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_t%C3%AAte_noire</t>
+          <t>Caïque_à_tête_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrilia caica
 Le Caïque à tête noire (Pyrilia caica) est une espèce d'oiseaux appartenant à la famille des Psittacidae. Il est également appelé perroquet caïque.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_t%C3%AAte_noire</t>
+          <t>Caïque_à_tête_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Confusion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe une possibilité de confusion concernant les diverses correspondances entre les noms latins et les noms francophones et anglophones des espèces Pionites melanocephalus (ou Pionites melanocephala), le Caïque maïpourri, et Pyrilia caica (ou Pionopsitta caica), le Caïque à tête noire.
 Selon le COI :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_t%C3%AAte_noire</t>
+          <t>Caïque_à_tête_noire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 23 cm de long. Il a la tête noir brunâtre d'où son nom normalisé pouvant prêter confusion avec un autre caïque à tête noire : le Caïque maïpourri (Pionites melanocephala). Il présente un plumage vert écaillé de marron. Les rémiges et les extrémités des rectrices sont noires. Cet oiseau arbore un collier orange brun doré qui s'étend de la nuque jusqu'à la poitrine. Les cercles oculaires sont clairs et les iris jaunes. Le bec et les pattes sont grisâtres.
 Cette espèce ne présente pas de dimorphisme sexuel.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_t%C3%AAte_noire</t>
+          <t>Caïque_à_tête_noire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans les forêts-galeries et les forêts ouvertes.
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_t%C3%AAte_noire</t>
+          <t>Caïque_à_tête_noire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple le sud-est du Venezuela, la Guyane et le nord de l'Amazonie brésilienne.
 </t>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_t%C3%AAte_noire</t>
+          <t>Caïque_à_tête_noire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Captivité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut être élevé notamment dans des volières accueillant plusieurs couples ; la reproduction peut aussi se faire en couple isolés, dans de grandes cages suspendues, mais avec plusieurs couples logeant les uns à côté des autres.
 </t>
